--- a/cve-py/newexcels/CVE-2021-01-27_1.xlsx
+++ b/cve-py/newexcels/CVE-2021-01-27_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="87">
   <si>
     <t>Component</t>
   </si>
@@ -32,6 +32,249 @@
   </si>
   <si>
     <t>CVE-2021-3156</t>
+  </si>
+  <si>
+    <t>checkstyle</t>
+  </si>
+  <si>
+    <t>CVE-2019-9658</t>
+  </si>
+  <si>
+    <t>cifs-utils</t>
+  </si>
+  <si>
+    <t>CVE-2020-14342</t>
+  </si>
+  <si>
+    <t>ed</t>
+  </si>
+  <si>
+    <t>1.14.2</t>
+  </si>
+  <si>
+    <t>CVE-2015-2987</t>
+  </si>
+  <si>
+    <t>freeradius</t>
+  </si>
+  <si>
+    <t>3.0.15</t>
+  </si>
+  <si>
+    <t>CVE-2019-11235</t>
+  </si>
+  <si>
+    <t>kernel</t>
+  </si>
+  <si>
+    <t>4.19.90</t>
+  </si>
+  <si>
+    <t>CVE-2020-16119</t>
+  </si>
+  <si>
+    <t>CVE-2020-28374</t>
+  </si>
+  <si>
+    <t>CVE-2020-0465</t>
+  </si>
+  <si>
+    <t>CVE-2020-0466</t>
+  </si>
+  <si>
+    <t>CVE-2020-27066</t>
+  </si>
+  <si>
+    <t>CVE-2020-29568</t>
+  </si>
+  <si>
+    <t>CVE-2020-0423</t>
+  </si>
+  <si>
+    <t>CVE-2020-0347</t>
+  </si>
+  <si>
+    <t>CVE-2020-27068</t>
+  </si>
+  <si>
+    <t>CVE-2020-0431</t>
+  </si>
+  <si>
+    <t>CVE-2020-25661</t>
+  </si>
+  <si>
+    <t>CVE-2020-0427</t>
+  </si>
+  <si>
+    <t>CVE-2020-27786</t>
+  </si>
+  <si>
+    <t>CVE-2020-8694</t>
+  </si>
+  <si>
+    <t>CVE-2020-4788</t>
+  </si>
+  <si>
+    <t>CVE-2020-27825</t>
+  </si>
+  <si>
+    <t>CVE-2020-25662</t>
+  </si>
+  <si>
+    <t>CVE-2020-0305</t>
+  </si>
+  <si>
+    <t>CVE-2020-0444</t>
+  </si>
+  <si>
+    <t>CVE-2020-12912</t>
+  </si>
+  <si>
+    <t>CVE-2020-36158</t>
+  </si>
+  <si>
+    <t>CVE-2021-0342</t>
+  </si>
+  <si>
+    <t>CVE-2020-27835</t>
+  </si>
+  <si>
+    <t>lz4</t>
+  </si>
+  <si>
+    <t>CVE-2014-4715</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>2.9.8</t>
+  </si>
+  <si>
+    <t>CVE-2021-20190</t>
+  </si>
+  <si>
+    <t>libao</t>
+  </si>
+  <si>
+    <t>1.2.0</t>
+  </si>
+  <si>
+    <t>CVE-2017-11548</t>
+  </si>
+  <si>
+    <t>libimobiledevice</t>
+  </si>
+  <si>
+    <t>CVE-2016-5104</t>
+  </si>
+  <si>
+    <t>OpenEXR</t>
+  </si>
+  <si>
+    <t>2.2.0</t>
+  </si>
+  <si>
+    <t>CVE-2017-9115</t>
+  </si>
+  <si>
+    <t>CVE-2017-9111</t>
+  </si>
+  <si>
+    <t>CVE-2017-12596</t>
+  </si>
+  <si>
+    <t>CVE-2017-9116</t>
+  </si>
+  <si>
+    <t>CVE-2017-9114</t>
+  </si>
+  <si>
+    <t>CVE-2017-9113</t>
+  </si>
+  <si>
+    <t>CVE-2017-9112</t>
+  </si>
+  <si>
+    <t>CVE-2017-9110</t>
+  </si>
+  <si>
+    <t>CVE-2017-14988</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>7.2.10</t>
+  </si>
+  <si>
+    <t>CVE-2019-9020</t>
+  </si>
+  <si>
+    <t>resteasy</t>
+  </si>
+  <si>
+    <t>3.0.19</t>
+  </si>
+  <si>
+    <t>CVE-2016-9606</t>
+  </si>
+  <si>
+    <t>python-pillow</t>
+  </si>
+  <si>
+    <t>5.3.0</t>
+  </si>
+  <si>
+    <t>CVE-2020-35653</t>
+  </si>
+  <si>
+    <t>CVE-2020-35655</t>
+  </si>
+  <si>
+    <t>realmd</t>
+  </si>
+  <si>
+    <t>0.16.3</t>
+  </si>
+  <si>
+    <t>CVE-2015-2704</t>
+  </si>
+  <si>
+    <t>sharutils</t>
+  </si>
+  <si>
+    <t>4.15.2</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000097</t>
+  </si>
+  <si>
+    <t>taglib</t>
+  </si>
+  <si>
+    <t>1.11.1</t>
+  </si>
+  <si>
+    <t>CVE-2017-12678</t>
+  </si>
+  <si>
+    <t>unzip</t>
+  </si>
+  <si>
+    <t>CVE-2018-1000035</t>
+  </si>
+  <si>
+    <t>vorbis-tools</t>
+  </si>
+  <si>
+    <t>1.4.0</t>
+  </si>
+  <si>
+    <t>CVE-2017-11331</t>
+  </si>
+  <si>
+    <t>CVE-2015-6749</t>
   </si>
 </sst>
 </file>
@@ -40,11 +283,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -57,6 +300,20 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -69,24 +326,33 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -98,31 +364,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -136,76 +432,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -220,73 +456,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -298,109 +636,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,11 +665,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -443,6 +685,26 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,21 +720,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -495,18 +742,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -514,163 +750,170 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1020,13 +1263,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="12.25" style="1" customWidth="1"/>
@@ -1055,6 +1298,567 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" s="5">
+        <v>6.1</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
